--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D59AA-E008-4188-BA46-A861420FAB1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sec invoice Master" sheetId="1" r:id="rId1"/>
     <sheet name="Validations" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -73,6 +74,9 @@
     <t>Incorrect Freight Class</t>
   </si>
   <si>
+    <t>Incorrect Product Category</t>
+  </si>
+  <si>
     <t>Incorrect Weight</t>
   </si>
   <si>
@@ -88,49 +92,52 @@
     <t>Service Upgrade</t>
   </si>
   <si>
+    <t>FCT874922514537512960</t>
+  </si>
+  <si>
+    <t>FC Test Carrier</t>
+  </si>
+  <si>
     <t>Assembly</t>
   </si>
   <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>ABF Freight</t>
-  </si>
-  <si>
-    <t>56952431</t>
-  </si>
-  <si>
-    <t>06/08/2021</t>
-  </si>
-  <si>
-    <t>FCT851841202847219712</t>
-  </si>
-  <si>
-    <t>147.22</t>
-  </si>
-  <si>
-    <t>56952431+11</t>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>07/07/2021</t>
+  </si>
+  <si>
+    <t>57410875</t>
+  </si>
+  <si>
+    <t>57410875+12</t>
+  </si>
+  <si>
+    <t>200.10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -143,6 +150,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -177,39 +190,44 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -219,15 +237,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{07936615-26A1-47FD-9E8C-D425AE7EEE54}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -351,7 +384,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -363,7 +396,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -377,7 +410,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -410,9 +443,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -445,6 +495,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -589,24 +656,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" customWidth="1"/>
@@ -614,7 +681,7 @@
     <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,51 +716,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>5679</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10">
-        <v>5679</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>23</v>
+      <c r="K2">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -703,14 +774,14 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
-            <xm:f>Validations!$A$1:$A$11</xm:f>
+            <xm:f>Validations!$A$1:$A$12</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H2:H1001</xm:sqref>
+          <xm:sqref>H2:H983</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -719,71 +790,76 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" customHeight="1">
+    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="14.25" customHeight="1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D59AA-E008-4188-BA46-A861420FAB1F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1316D47F-8264-45F2-901A-26EFD6A8D886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,9 +26,6 @@
     <t>FC Order ID</t>
   </si>
   <si>
-    <t>Date CREATED</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tracking # </t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Service Upgrade</t>
   </si>
   <si>
-    <t>FCT874922514537512960</t>
-  </si>
-  <si>
     <t>FC Test Carrier</t>
   </si>
   <si>
@@ -104,16 +98,22 @@
     <t>Yes</t>
   </si>
   <si>
+    <t>200.10</t>
+  </si>
+  <si>
+    <t>Date CREATED (MM/DD/YYYY)</t>
+  </si>
+  <si>
     <t>07/07/2021</t>
   </si>
   <si>
-    <t>57410875</t>
-  </si>
-  <si>
-    <t>57410875+12</t>
-  </si>
-  <si>
-    <t>200.10</t>
+    <t>57466645</t>
+  </si>
+  <si>
+    <t>57466645+1</t>
+  </si>
+  <si>
+    <t>FCT877055778467348480</t>
   </si>
 </sst>
 </file>
@@ -666,8 +666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,34 +686,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -724,28 +724,28 @@
         <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>5679</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K2">
         <v>222</v>
@@ -804,62 +804,62 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1316D47F-8264-45F2-901A-26EFD6A8D886}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCEEE23-3AA0-4F38-A107-E3A8AEC50E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -98,22 +98,19 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>200.10</t>
-  </si>
-  <si>
     <t>Date CREATED (MM/DD/YYYY)</t>
   </si>
   <si>
     <t>07/07/2021</t>
   </si>
   <si>
-    <t>57466645</t>
-  </si>
-  <si>
-    <t>57466645+1</t>
-  </si>
-  <si>
-    <t>FCT877055778467348480</t>
+    <t>57535724</t>
+  </si>
+  <si>
+    <t>FCT879658849361985536</t>
+  </si>
+  <si>
+    <t>57535724+2</t>
   </si>
 </sst>
 </file>
@@ -161,7 +158,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +177,28 @@
         <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -190,17 +207,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -210,7 +256,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,13 +283,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -666,19 +712,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="10" width="28" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -686,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -717,14 +766,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -732,8 +781,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>25</v>
+      <c r="F2" s="14">
+        <v>477.87</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -741,7 +790,7 @@
       <c r="H2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="13" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
@@ -799,7 +848,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCEEE23-3AA0-4F38-A107-E3A8AEC50E80}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3472A04C-2C54-4A58-8BB0-C34D35329503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,13 +104,13 @@
     <t>07/07/2021</t>
   </si>
   <si>
-    <t>57535724</t>
-  </si>
-  <si>
-    <t>FCT879658849361985536</t>
-  </si>
-  <si>
-    <t>57535724+2</t>
+    <t>57572175</t>
+  </si>
+  <si>
+    <t>FCT882200869779537920</t>
+  </si>
+  <si>
+    <t>57572175+12</t>
   </si>
 </sst>
 </file>
@@ -256,7 +256,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,7 +276,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -712,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,14 +764,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D2" t="s">
@@ -781,16 +780,16 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="14">
-        <v>477.87</v>
+      <c r="F2" s="13">
+        <v>939.35</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
@@ -830,7 +829,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H2:H983</xm:sqref>
+          <xm:sqref>H2:H982</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -852,62 +851,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
     </row>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3472A04C-2C54-4A58-8BB0-C34D35329503}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{3472A04C-2C54-4A58-8BB0-C34D35329503}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sec invoice Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sec invoice Master" r:id="rId1" sheetId="1"/>
+    <sheet name="Validations" r:id="rId2" sheetId="2" state="hidden"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -111,6 +111,30 @@
   </si>
   <si>
     <t>57572175+12</t>
+  </si>
+  <si>
+    <t>57726552</t>
+  </si>
+  <si>
+    <t>FCT892803672960925696</t>
+  </si>
+  <si>
+    <t>57726552+1</t>
+  </si>
+  <si>
+    <t>453.11</t>
+  </si>
+  <si>
+    <t>57726553</t>
+  </si>
+  <si>
+    <t>FCT892814449704960000</t>
+  </si>
+  <si>
+    <t>57726553+1</t>
+  </si>
+  <si>
+    <t>8.57</t>
   </si>
 </sst>
 </file>
@@ -158,7 +182,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +221,88 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -250,49 +354,113 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="14" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{07936615-26A1-47FD-9E8C-D425AE7EEE54}"/>
   </cellStyles>
   <dxfs count="4">
@@ -332,7 +500,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -417,10 +585,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -455,7 +623,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -507,7 +675,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -618,21 +786,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -649,7 +817,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -701,32 +869,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.53515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.36328125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.234375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -765,14 +933,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
+      <c r="A2" s="18" t="s">
+        <v>34</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
+      <c r="C2" s="19" t="s">
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -780,8 +948,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="13">
-        <v>939.35</v>
+      <c r="F2" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -789,8 +957,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>29</v>
+      <c r="I2" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -802,27 +970,27 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule dxfId="3" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
+    <cfRule dxfId="1" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule dxfId="0" priority="5" type="duplicateValues"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Validations!$A$1:$A$12</xm:f>
           </x14:formula1>
@@ -838,19 +1006,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -911,8 +1079,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{3472A04C-2C54-4A58-8BB0-C34D35329503}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AF7C99A0-E626-4C84-A651-9A209A7D01D1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -104,27 +104,6 @@
     <t>07/07/2021</t>
   </si>
   <si>
-    <t>57572175</t>
-  </si>
-  <si>
-    <t>FCT882200869779537920</t>
-  </si>
-  <si>
-    <t>57572175+12</t>
-  </si>
-  <si>
-    <t>57726552</t>
-  </si>
-  <si>
-    <t>FCT892803672960925696</t>
-  </si>
-  <si>
-    <t>57726552+1</t>
-  </si>
-  <si>
-    <t>453.11</t>
-  </si>
-  <si>
     <t>57726553</t>
   </si>
   <si>
@@ -135,6 +114,18 @@
   </si>
   <si>
     <t>8.57</t>
+  </si>
+  <si>
+    <t>57762255</t>
+  </si>
+  <si>
+    <t>FCT895569320514420736</t>
+  </si>
+  <si>
+    <t>57762255+1</t>
+  </si>
+  <si>
+    <t>826.57</t>
   </si>
 </sst>
 </file>
@@ -182,7 +173,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,48 +252,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -382,41 +333,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -452,11 +375,7 @@
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="12" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="16" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="18" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="20" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -880,7 +799,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,14 +852,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>34</v>
+      <c r="A2" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>35</v>
+      <c r="C2" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -948,8 +867,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>37</v>
+      <c r="F2" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -957,8 +876,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>36</v>
+      <c r="I2" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -126,6 +126,30 @@
   </si>
   <si>
     <t>826.57</t>
+  </si>
+  <si>
+    <t>57794958</t>
+  </si>
+  <si>
+    <t>FCT898607587350544384</t>
+  </si>
+  <si>
+    <t>57794958+1</t>
+  </si>
+  <si>
+    <t>258.93</t>
+  </si>
+  <si>
+    <t>57794961</t>
+  </si>
+  <si>
+    <t>FCT898617792033456128</t>
+  </si>
+  <si>
+    <t>57794961+1</t>
+  </si>
+  <si>
+    <t>928.40</t>
   </si>
 </sst>
 </file>
@@ -173,7 +197,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +276,88 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -333,13 +437,69 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -375,7 +535,15 @@
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -852,14 +1020,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
+      <c r="A2" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>32</v>
+      <c r="C2" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -867,8 +1035,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>34</v>
+      <c r="F2" s="25" t="s">
+        <v>42</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -876,8 +1044,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>33</v>
+      <c r="I2" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{AF7C99A0-E626-4C84-A651-9A209A7D01D1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2A55725A-122F-4313-91D7-553B7D69BD67}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -104,52 +104,28 @@
     <t>07/07/2021</t>
   </si>
   <si>
-    <t>57726553</t>
-  </si>
-  <si>
-    <t>FCT892814449704960000</t>
-  </si>
-  <si>
-    <t>57726553+1</t>
-  </si>
-  <si>
-    <t>8.57</t>
-  </si>
-  <si>
-    <t>57762255</t>
-  </si>
-  <si>
-    <t>FCT895569320514420736</t>
-  </si>
-  <si>
-    <t>57762255+1</t>
-  </si>
-  <si>
-    <t>826.57</t>
-  </si>
-  <si>
-    <t>57794958</t>
-  </si>
-  <si>
-    <t>FCT898607587350544384</t>
-  </si>
-  <si>
-    <t>57794958+1</t>
-  </si>
-  <si>
-    <t>258.93</t>
-  </si>
-  <si>
-    <t>57794961</t>
-  </si>
-  <si>
-    <t>FCT898617792033456128</t>
-  </si>
-  <si>
-    <t>57794961+1</t>
-  </si>
-  <si>
-    <t>928.40</t>
+    <t>57904492</t>
+  </si>
+  <si>
+    <t>FCT902881403002159104</t>
+  </si>
+  <si>
+    <t>57904492+1</t>
+  </si>
+  <si>
+    <t>251.46</t>
+  </si>
+  <si>
+    <t>57905035</t>
+  </si>
+  <si>
+    <t>FCT903349878300606464</t>
+  </si>
+  <si>
+    <t>57905035+1</t>
+  </si>
+  <si>
+    <t>697.36</t>
   </si>
 </sst>
 </file>
@@ -197,7 +173,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,88 +252,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -437,69 +333,13 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -531,19 +371,11 @@
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="7" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="12" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="16" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="18" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="20" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="22" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="24" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="26" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -967,7 +799,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,14 +852,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>39</v>
+      <c r="A2" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>40</v>
+      <c r="C2" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1035,8 +867,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>42</v>
+      <c r="F2" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -1044,8 +876,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>41</v>
+      <c r="I2" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -126,6 +126,198 @@
   </si>
   <si>
     <t>697.36</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Pending Tracking...</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>861.81</t>
+  </si>
+  <si>
+    <t>57905039</t>
+  </si>
+  <si>
+    <t>FCT903465593636651008</t>
+  </si>
+  <si>
+    <t>57905039+1</t>
+  </si>
+  <si>
+    <t>594.13</t>
+  </si>
+  <si>
+    <t>57905041</t>
+  </si>
+  <si>
+    <t>FCT903478420304822272</t>
+  </si>
+  <si>
+    <t>57905041+1</t>
+  </si>
+  <si>
+    <t>971.80</t>
+  </si>
+  <si>
+    <t>57905042</t>
+  </si>
+  <si>
+    <t>FCT903485001817915392</t>
+  </si>
+  <si>
+    <t>57905042+1</t>
+  </si>
+  <si>
+    <t>181.82</t>
+  </si>
+  <si>
+    <t>57905047</t>
+  </si>
+  <si>
+    <t>FCT903502514618368000</t>
+  </si>
+  <si>
+    <t>57905047+1</t>
+  </si>
+  <si>
+    <t>779.99</t>
+  </si>
+  <si>
+    <t>58138735</t>
+  </si>
+  <si>
+    <t>FCT904983283735986176</t>
+  </si>
+  <si>
+    <t>58138735+1</t>
+  </si>
+  <si>
+    <t>181.42</t>
+  </si>
+  <si>
+    <t>58138742</t>
+  </si>
+  <si>
+    <t>FCT904988968162951168</t>
+  </si>
+  <si>
+    <t>58138742+1</t>
+  </si>
+  <si>
+    <t>834.85</t>
+  </si>
+  <si>
+    <t>58138775</t>
+  </si>
+  <si>
+    <t>FCT904996812262211584</t>
+  </si>
+  <si>
+    <t>58138775+1</t>
+  </si>
+  <si>
+    <t>310.82</t>
+  </si>
+  <si>
+    <t>58138779</t>
+  </si>
+  <si>
+    <t>FCT905007525391237120</t>
+  </si>
+  <si>
+    <t>58138779+1</t>
+  </si>
+  <si>
+    <t>431.91</t>
+  </si>
+  <si>
+    <t>58138780</t>
+  </si>
+  <si>
+    <t>FCT905029865722347520</t>
+  </si>
+  <si>
+    <t>58138780+1</t>
+  </si>
+  <si>
+    <t>76.92</t>
+  </si>
+  <si>
+    <t>58138784</t>
+  </si>
+  <si>
+    <t>FCT905043390154932224</t>
+  </si>
+  <si>
+    <t>58138784+1</t>
+  </si>
+  <si>
+    <t>728.49</t>
+  </si>
+  <si>
+    <t>58138816</t>
+  </si>
+  <si>
+    <t>FCT905066868329414656</t>
+  </si>
+  <si>
+    <t>58138816+1</t>
+  </si>
+  <si>
+    <t>930.59</t>
+  </si>
+  <si>
+    <t>58138837</t>
+  </si>
+  <si>
+    <t>FCT905095710293098496</t>
+  </si>
+  <si>
+    <t>58138837+1</t>
+  </si>
+  <si>
+    <t>354.84</t>
+  </si>
+  <si>
+    <t>58138838</t>
+  </si>
+  <si>
+    <t>FCT905161152848199680</t>
+  </si>
+  <si>
+    <t>58138838+1</t>
+  </si>
+  <si>
+    <t>75.94</t>
+  </si>
+  <si>
+    <t>58193236</t>
+  </si>
+  <si>
+    <t>FCT907201162267066368</t>
+  </si>
+  <si>
+    <t>58193236+1</t>
+  </si>
+  <si>
+    <t>55.51</t>
+  </si>
+  <si>
+    <t>58193243</t>
+  </si>
+  <si>
+    <t>FCT907212077263749120</t>
+  </si>
+  <si>
+    <t>58193243+1</t>
+  </si>
+  <si>
+    <t>647.92</t>
   </si>
 </sst>
 </file>
@@ -173,7 +365,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="144">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +444,648 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="141">
     <border>
       <left/>
       <right/>
@@ -333,13 +1165,461 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="82">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -375,7 +1655,71 @@
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="40" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="42" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="46" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="50" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="54" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="58" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="60" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="62" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="64" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="66" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="68" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="70" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="94" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="96" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="98" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="100" fillId="103" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="102" fillId="105" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="104" fillId="107" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="106" fillId="109" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="108" fillId="111" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="110" fillId="113" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="112" fillId="115" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="114" fillId="117" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="116" fillId="119" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="118" fillId="121" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="120" fillId="123" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="122" fillId="125" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="124" fillId="127" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="126" fillId="129" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="128" fillId="131" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="130" fillId="133" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="132" fillId="135" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="134" fillId="137" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="136" fillId="139" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="138" fillId="141" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="143" borderId="140" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -852,14 +2196,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
+      <c r="A2" s="78" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>32</v>
+      <c r="C2" s="79" t="s">
+        <v>96</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -867,8 +2211,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>34</v>
+      <c r="F2" s="81" t="s">
+        <v>98</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -876,8 +2220,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>33</v>
+      <c r="I2" s="80" t="s">
+        <v>97</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -123,6 +123,30 @@
   </si>
   <si>
     <t>332.50</t>
+  </si>
+  <si>
+    <t>58233442</t>
+  </si>
+  <si>
+    <t>FCT910922194140266496</t>
+  </si>
+  <si>
+    <t>58233442+1</t>
+  </si>
+  <si>
+    <t>665.79</t>
+  </si>
+  <si>
+    <t>58233443</t>
+  </si>
+  <si>
+    <t>FCT910932700171337728</t>
+  </si>
+  <si>
+    <t>58233443+1</t>
+  </si>
+  <si>
+    <t>171.90</t>
   </si>
 </sst>
 </file>
@@ -170,7 +194,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +273,88 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -330,13 +434,69 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -372,7 +532,15 @@
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -849,14 +1017,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
+      <c r="A2" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>31</v>
+      <c r="C2" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -864,8 +1032,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>33</v>
+      <c r="F2" s="25" t="s">
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -873,8 +1041,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>32</v>
+      <c r="I2" s="24" t="s">
+        <v>40</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>171.90</t>
+  </si>
+  <si>
+    <t>58285533</t>
+  </si>
+  <si>
+    <t>FCT913386929624449024</t>
+  </si>
+  <si>
+    <t>58285533+1</t>
+  </si>
+  <si>
+    <t>397.15</t>
   </si>
 </sst>
 </file>
@@ -194,7 +206,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="32">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,8 +365,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -490,13 +542,41 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -540,7 +620,11 @@
     <xf applyBorder="true" applyFill="true" borderId="22" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="24" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="26" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -1017,14 +1101,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>38</v>
+      <c r="A2" s="26" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>39</v>
+      <c r="C2" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1032,8 +1116,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>41</v>
+      <c r="F2" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -1041,8 +1125,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="24" t="s">
-        <v>40</v>
+      <c r="I2" s="28" t="s">
+        <v>44</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{27ABF70F-8E32-4BAF-BF81-84828730924C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDDBD10-21F5-4C8B-BF32-3A56079A327E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sec invoice Master" r:id="rId1" sheetId="1"/>
-    <sheet name="Validations" r:id="rId2" sheetId="2" state="hidden"/>
+    <sheet name="Sec invoice Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -104,61 +104,16 @@
     <t>07/07/2021</t>
   </si>
   <si>
-    <t>58193593</t>
-  </si>
-  <si>
-    <t>FCT908610010374733824</t>
-  </si>
-  <si>
-    <t>58193593+2</t>
-  </si>
-  <si>
-    <t>58232947</t>
-  </si>
-  <si>
-    <t>FCT909760896656474112</t>
-  </si>
-  <si>
-    <t>58232947+1</t>
-  </si>
-  <si>
-    <t>332.50</t>
-  </si>
-  <si>
-    <t>58233442</t>
-  </si>
-  <si>
-    <t>FCT910922194140266496</t>
-  </si>
-  <si>
-    <t>58233442+1</t>
-  </si>
-  <si>
-    <t>665.79</t>
-  </si>
-  <si>
-    <t>58233443</t>
-  </si>
-  <si>
-    <t>FCT910932700171337728</t>
-  </si>
-  <si>
-    <t>58233443+1</t>
-  </si>
-  <si>
-    <t>171.90</t>
-  </si>
-  <si>
-    <t>58285533</t>
-  </si>
-  <si>
-    <t>FCT913386929624449024</t>
-  </si>
-  <si>
-    <t>58285533+1</t>
-  </si>
-  <si>
-    <t>397.15</t>
+    <t>58285545</t>
+  </si>
+  <si>
+    <t>FCT913424965259231232</t>
+  </si>
+  <si>
+    <t>58285545+2</t>
+  </si>
+  <si>
+    <t>888.68</t>
   </si>
 </sst>
 </file>
@@ -206,7 +161,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,168 +200,8 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -458,177 +253,49 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="14" xfId="0">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="4" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="12" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="14" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="16" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="18" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="20" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="22" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="24" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="26" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="28" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="30" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="32" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="true" applyFill="true" borderId="34" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{07936615-26A1-47FD-9E8C-D425AE7EEE54}"/>
   </cellStyles>
   <dxfs count="4">
@@ -668,7 +335,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -753,10 +420,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -791,7 +458,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -843,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -954,21 +621,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -985,7 +652,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1037,32 +704,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.53515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.36328125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.234375" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="28" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1101,14 +768,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>42</v>
+      <c r="A2" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>43</v>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -1116,8 +783,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>45</v>
+      <c r="F2" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -1125,8 +792,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="28" t="s">
-        <v>44</v>
+      <c r="I2" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -1138,27 +805,27 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="3" priority="2" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
-    <cfRule dxfId="1" priority="4" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule dxfId="0" priority="5" type="duplicateValues"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Validations!$A$1:$A$12</xm:f>
           </x14:formula1>
@@ -1174,19 +841,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -1247,8 +914,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
-  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDDBD10-21F5-4C8B-BF32-3A56079A327E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{5EDDBD10-21F5-4C8B-BF32-3A56079A327E}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="500" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sec invoice Master" sheetId="1" r:id="rId1"/>
-    <sheet name="Validations" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sec invoice Master" r:id="rId1" sheetId="1"/>
+    <sheet name="Validations" r:id="rId2" sheetId="2" state="hidden"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>888.68</t>
+  </si>
+  <si>
+    <t>58285547</t>
+  </si>
+  <si>
+    <t>FCT913438719413846016</t>
+  </si>
+  <si>
+    <t>58285547+1</t>
+  </si>
+  <si>
+    <t>46.99</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +212,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -253,49 +305,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="14" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="3" fontId="2" numFmtId="165" xfId="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="7" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="3" name="Comma" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{07936615-26A1-47FD-9E8C-D425AE7EEE54}"/>
   </cellStyles>
   <dxfs count="4">
@@ -335,7 +419,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -420,10 +504,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -458,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -510,7 +594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -621,21 +705,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -652,7 +736,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -704,32 +788,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0" zoomScale="98" zoomScaleNormal="98">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="28" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="28" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.53515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.36328125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.234375" collapsed="true"/>
+    <col min="7" max="8" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -768,14 +852,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>27</v>
+      <c r="A2" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
+      <c r="C2" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -783,8 +867,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>30</v>
+      <c r="F2" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -792,8 +876,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>29</v>
+      <c r="I2" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
@@ -805,27 +889,27 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule dxfId="3" priority="2" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule dxfId="2" priority="3" type="duplicateValues"/>
+    <cfRule dxfId="1" priority="4" type="duplicateValues"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule dxfId="0" priority="5" type="duplicateValues"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="H1" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.51180555555555496" header="0.51180555555555496" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" r:id="rId1" verticalDpi="300"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" type="list" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Validations!$A$1:$A$12</xm:f>
           </x14:formula1>
@@ -841,19 +925,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.6" r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>10</v>
       </c>
@@ -914,8 +998,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="1.05277777777778" footer="0.78749999999999998" header="0.78749999999999998" left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778"/>
+  <pageSetup firstPageNumber="0" horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</oddFooter>

--- a/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
+++ b/binaries/FCfiles/SecondaryInvoiceTemplate.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>FC Order ID</t>
   </si>
@@ -126,6 +126,42 @@
   </si>
   <si>
     <t>46.99</t>
+  </si>
+  <si>
+    <t>58327782</t>
+  </si>
+  <si>
+    <t>FCT915497466927775744</t>
+  </si>
+  <si>
+    <t>58327782+1</t>
+  </si>
+  <si>
+    <t>105.22</t>
+  </si>
+  <si>
+    <t>58327789</t>
+  </si>
+  <si>
+    <t>FCT915506118178897920</t>
+  </si>
+  <si>
+    <t>58327789+1</t>
+  </si>
+  <si>
+    <t>85.1</t>
+  </si>
+  <si>
+    <t>58327790</t>
+  </si>
+  <si>
+    <t>FCT915518758829686784</t>
+  </si>
+  <si>
+    <t>58327790+1</t>
+  </si>
+  <si>
+    <t>112.84</t>
   </si>
 </sst>
 </file>
@@ -173,7 +209,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,8 +288,128 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -333,13 +489,97 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyBorder="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="164"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -375,7 +615,19 @@
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="8" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="36" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle builtinId="3" name="Comma" xfId="1"/>
@@ -852,14 +1104,14 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>31</v>
+      <c r="A2" s="26" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>32</v>
+      <c r="C2" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -867,8 +1119,8 @@
       <c r="E2">
         <v>5679</v>
       </c>
-      <c r="F2" s="17" t="s">
-        <v>34</v>
+      <c r="F2" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
@@ -876,8 +1128,8 @@
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>33</v>
+      <c r="I2" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
